--- a/dados/auto equipsc.xlsx
+++ b/dados/auto equipsc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:1024303377#searchVariation=MLB34210379&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:1024303377#searchVariation=MLB34210379&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=c1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -546,17 +574,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -571,17 +605,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -596,17 +636,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -621,17 +667,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -646,17 +698,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -671,17 +729,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -696,17 +760,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -721,17 +791,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -746,17 +822,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -771,17 +853,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -796,17 +884,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -821,17 +915,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -846,17 +946,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -871,17 +977,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -896,17 +1008,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -921,17 +1039,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -946,17 +1070,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -971,17 +1101,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -996,17 +1132,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1163,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1194,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6fcea338-e789-4443-9675-16c3b4a01a1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
         </is>
       </c>
     </row>

--- a/dados/auto equipsc.xlsx
+++ b/dados/auto equipsc.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Módulo Amplificador Ir400.4 400.4 400w + Controle Jfa Azul</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>309.9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -507,13 +507,13 @@
           <t>Módulo Amplificador Ir400.4 400 400w + Controle Jfa Vermelho</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>309.9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -538,13 +538,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>71.90000000000001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -559,23 +559,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:1024303377#searchVariation=MLB34210379&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=c1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:1024303377#searchVariation=MLB34210379&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>Módulo Amplificador Ir400.4 400.4 400w + Controle Jfa Azul</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>335.9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -590,23 +590,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Módulo Amplificador Ir400.4 400.4 400w + Controle Jfa Azul</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+          <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>335.9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -631,13 +631,13 @@
           <t>Módulo Potência Stetsom Ir400 400w + Controle Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>335.9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -662,13 +662,13 @@
           <t>Módulo Amplificador Ir400.4 400 400w + Controle Jfa Vermelho</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>335.9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -693,13 +693,13 @@
           <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>309.9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -724,13 +724,13 @@
           <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>33.84</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -755,13 +755,13 @@
           <t>Módulo Potência Stetsom Ir400 400w + Controle Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>309.9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -786,13 +786,13 @@
           <t>Módulo Stetsom Ir400 400w Novo + Controle Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>309.9</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -817,13 +817,13 @@
           <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Som</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>78.98999999999999</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -848,13 +848,13 @@
           <t>Módulo Stetsom Ir400 400w Novo + Controle Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>335.9</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -879,13 +879,13 @@
           <t>Controle Longa Distancia Jfa K1200 Azul Completo Som Carro</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>78.98999999999999</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -910,13 +910,13 @@
           <t>Jfa K1200 Central + Controle Distancia Completo Testado Azul</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>74.90000000000001</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -941,13 +941,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>78.98999999999999</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -972,13 +972,13 @@
           <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Som</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>74.90000000000001</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -1003,13 +1003,13 @@
           <t>Controle Longa Distância Jfa K1200 1200m Vermelho Completo</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>78.98999999999999</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
           <t>Controle Longa Distância Jfa K1200 1200 Mts Azul Completo</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>74.90000000000001</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -1065,13 +1065,13 @@
           <t>Controle Longa Distância Jfa K1200 1200 Mts Azul Completo</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>78.98999999999999</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -1096,13 +1096,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>74.90000000000001</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -1127,13 +1127,13 @@
           <t>Jfa K1200 Central + Controle Distancia Completo Testado Azul</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>78.98999999999999</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -1158,13 +1158,13 @@
           <t>Controle Longa Distancia Jfa K1200 Azul Completo Som Carro</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>74.90000000000001</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>
@@ -1189,13 +1189,13 @@
           <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>32.4</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc1f14ab8-1380-4955-b0e4-59204e5b1141</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
         </is>
       </c>
     </row>

--- a/dados/auto equipsc.xlsx
+++ b/dados/auto equipsc.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -540,13 +540,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -559,7 +563,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:1024303377#searchVariation=MLB34210379&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:1024303377#searchVariation=MLB34210379&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -590,7 +594,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -602,13 +606,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>335.9</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -621,7 +629,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -633,13 +641,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>335.9</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -652,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -683,7 +695,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -695,13 +707,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>309.9</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -714,7 +730,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -745,7 +761,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -757,13 +773,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>309.9</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -776,7 +796,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -788,13 +808,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>309.9</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -807,7 +831,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -819,13 +843,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -838,7 +866,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -850,13 +878,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>335.9</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -869,7 +901,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -881,13 +913,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -900,7 +936,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -912,13 +948,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -931,7 +971,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -943,13 +983,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -962,7 +1006,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -974,13 +1018,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -993,7 +1041,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -1005,13 +1053,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1024,7 +1076,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -1036,13 +1088,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1055,7 +1111,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -1067,13 +1123,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1086,7 +1146,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -1098,13 +1158,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1117,7 +1181,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -1129,13 +1193,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1148,7 +1216,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1228,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1179,7 +1251,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1282,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd97ef72b-063b-4523-a7d2-79ee6e62b6fb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
         </is>
       </c>
     </row>

--- a/dados/auto equipsc.xlsx
+++ b/dados/auto equipsc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,816 +483,1056 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Módulo Amplificador Ir400.4 400.4 400w + Controle Jfa Azul</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>309.9</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E2" t="n">
+        <v>335.9</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Módulo Amplificador Ir400.4 400 400w + Controle Jfa Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Módulo Potência Stetsom Ir400 400w + Controle Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>309.9</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>71.90000000000001</v>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>90.90000000000001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:1024303377#searchVariation=MLB34210379&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1024303377#searchVariation=MLB28722231&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Módulo Amplificador Ir400.4 400.4 400w + Controle Jfa Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Módulo Amplificador Ir400.4 400 400w + Controle Jfa Vermelho</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>335.9</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="E5" t="n">
+        <v>309.9</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>335.9</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Módulo Potência Stetsom Ir400 400w + Controle Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>335.9</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Módulo Amplificador Ir400.4 400 400w + Controle Jfa Vermelho</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>335.9</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>309.9</v>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Módulo Stetsom Ir400 400w Novo + Controle Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>335.9</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>33.84</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Módulo Potência Stetsom Ir400 400w + Controle Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Módulo Amplificador Ir400.4 400.4 400w + Controle Jfa Azul</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>309.9</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Módulo Stetsom Ir400 400w Novo + Controle Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>309.9</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Som</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Módulo Stetsom Ir400 400w Novo + Controle Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>335.9</v>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>309.9</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K1200 Azul Completo Som Carro</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Jfa K1200 Central + Controle Distancia Completo Testado Azul</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>78.98999999999999</v>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Som</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>74.90000000000001</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>74.90000000000001</v>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>78.98999999999999</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa K1200 1200m Vermelho Completo</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa K1200 1200 Mts Azul Completo</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa K1200 1200 Mts Azul Completo</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>74.90000000000001</v>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Jfa K1200 Central + Controle Distancia Completo Testado Azul</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>78.98999999999999</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jfa K1200 Central + Controle Distancia Completo Testado Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>78.98999999999999</v>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>74.90000000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K1200 Azul Completo Som Carro</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>auto equipsc</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="E25" t="n">
         <v>32.4</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfea2943-4418-4634-82a4-56f510e6b24f</t>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
         </is>
       </c>
     </row>

--- a/dados/auto equipsc.xlsx
+++ b/dados/auto equipsc.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,14 +517,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800297-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Módulo Potência Stetsom Ir400 400w + Controle Jfa K1200 Azul</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>309.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -562,14 +562,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1024303377#searchVariation=MLB28722231&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=a180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90.90000000000001</v>
+        <v>335.9</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -602,19 +602,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1024303377#searchVariation=MLB28722231&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -648,14 +648,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836351-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
+          <t>Módulo Potência Stetsom Ir400 400w + Controle Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>335.9</v>
+        <v>309.9</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -688,19 +688,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800296-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170806422-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -710,22 +710,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Módulo Potência Stetsom Ir400 400w + Controle Jfa K1200 Azul</t>
+          <t>Módulo Amplificador Ir400.4 400 400w + Controle Jfa Vermelho</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>335.9</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -738,14 +734,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,18 +751,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Módulo Amplificador Ir400.4 400 400w + Controle Jfa Vermelho</t>
+          <t>Módulo Potência Stetsom Ir400 400w + Controle Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>335.9</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -779,14 +779,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170836349-modulo-amplificador-ir4004-400-400w-controle-jfa-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170818952-modulo-potncia-stetsom-ir400-400w-controle-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813613-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -841,18 +841,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
+          <t>Controle Longa Distancia Jfa K1200 Azul Completo Som Carro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.01</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>78.98999999999999</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -865,14 +869,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -882,18 +886,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Módulo Amplificador Ir400.4 400.4 400w + Controle Jfa Azul</t>
+          <t>Módulo Stetsom Ir400 400w Novo + Controle Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>309.9</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -906,14 +914,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -923,7 +931,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Som</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -932,7 +940,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>309.9</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -946,19 +954,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -968,22 +976,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Som</t>
+          <t>Módulo Amplificador Ir400.4 400.4 400w + Controle Jfa Azul</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>78.98999999999999</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>309.9</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -991,19 +995,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169071717-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170787877-modulo-amplificador-ir4004-4004-400w-controle-jfa-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1013,22 +1017,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Módulo Stetsom Ir400 400w Novo + Controle Jfa K1200 Vermelho</t>
+          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>309.9</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>38.9</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1036,19 +1036,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2170813621-modulo-stetsom-ir400-400w-novo-controle-jfa-k1200-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2187110219-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul Completo Som Carro</t>
+          <t>Módulo Stetsom Ir 400.4 400w Novo + Controle Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>78.98999999999999</v>
+        <v>309.9</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1081,19 +1081,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029741-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2170800301-modulo-stetsom-ir-4004-400w-novo-controle-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jfa K1200 Central + Controle Distancia Completo Testado Azul</t>
+          <t>Controle Longa Distância Jfa K1200 1200 Mts Azul Completo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Som</t>
+          <t>Controle Longa Distância Jfa K1200 1200m Vermelho Completo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>74.90000000000001</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1171,19 +1171,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Completo Som</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>78.98999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1216,19 +1216,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169118610-controle-longa-distancia-jfa-k1200-vermelho-completo-som-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200m Vermelho Completo</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1266,14 +1266,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169093086-controle-longa-distncia-jfa-k1200-1200m-vermelho-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169105705-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Mts Azul Completo</t>
+          <t>Jfa K1200 Central + Controle Distancia Completo Testado Azul</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1311,14 +1311,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169018509-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055209-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Mts Azul Completo</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>78.98999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1351,19 +1351,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jfa K1200 Central + Controle Distancia Completo Testado Azul</t>
+          <t>Controle Longa Distancia Jfa K1200 Azul Completo Som Carro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>78.98999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1396,19 +1396,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Controle Longa Distância Jfa K1200 1200 Mts Azul Completo</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>74.90000000000001</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1441,19 +1441,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169086961-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169061353-controle-longa-distncia-jfa-k1200-1200-mts-azul-completo-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul Completo Som Carro</t>
+          <t>Jfa K1200 Central + Controle Distancia Completo Testado Azul</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>74.90000000000001</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1486,19 +1486,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2169055241-controle-longa-distancia-jfa-k1200-azul-completo-som-carro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2169029713-jfa-k1200-central-controle-distancia-completo-testado-azul-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.4</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D13142ad2-e2bf-433e-8432-88984b83b3b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2187114994-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da180b68a-53b0-45e4-bcf9-4ec1aaee1c70</t>
         </is>
       </c>
     </row>
